--- a/Design/Content/Normalisation.xlsx
+++ b/Design/Content/Normalisation.xlsx
@@ -576,7 +576,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
